--- a/DialogSummary/241_chatgpt.xlsx
+++ b/DialogSummary/241_chatgpt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="743">
   <si>
     <t>子目录</t>
   </si>
@@ -3892,12 +3892,6 @@
     <t>用户因还款困难想延期，坐席要求提供车主名字，确认后告知有7天宽限期，最晚还款日期为10月1日晚7点之前，避免影响征信。</t>
   </si>
   <si>
-    <t>咨询解押资料邮寄进度，告知正常时效是15个工作日，催促加急，客户车卖了，备注优先，客户知悉。8299815405</t>
-  </si>
-  <si>
-    <t>用户咨询了信用卡账单的还款方式和逾期费用，金牌坐席详细介绍了自动还款、手动还款、最低还款和逾期费用的计算方式，并针对客户的还款日期和金额进行了具体的操作指引。同时，对于客户提出的分期付款问题，金牌坐席也给出了详细的说明和指导方案。最终，客户对金牌坐席的服务表示满意。</t>
-  </si>
-  <si>
     <t>6199824152修改银行卡已操作，知悉</t>
   </si>
   <si>
@@ -6232,67 +6226,6 @@
   </si>
   <si>
     <t>用户询问车贷还款是否完成，坐席确认后告知还需要支付五块零七分逾期费用，用户同意自动扣款并询问如何确认收货地址。坐席告知短信将发给车主并建议通过易信车主服务公众号登记确认，用户同意。最后用户要求尽快扣款。</t>
-  </si>
-  <si>
-    <t>河南省新郑市人民法院工作人员来电，表示客户车辆被法院拍卖了，客户可能没有解押，需要法务对接相关结清材料，希望法务部尽快联系，法院工作人员电话：17803850116   烦请处理，谢谢。
-编号：2115805
-姓名：高运明
-电话：15538266258</t>
-  </si>
-  <si>
-    <t>【坐席】：工号6158为您服务。您好，请问有什么可以帮您？
-【用户】：哎喂，你好，那个我我这个想查一个这个他那个车是不是解封了，他那个车主名字叫高运明。嗯，你好。嗯。嗯，好。高是高兴的高，运是运动的运，明是明天的明。
-【坐席】：嗯。嗯。嗯，好的，那先生您稍等一下，我这个在后台看一下。
-【用户】：好的。
-【坐席】：嗯，先生感谢耐心等待，我查了一下显示车主这边之前二一年就结清了我们那个材料，当时已经通过快递的形式去邮寄了，您看后面收到那个材料以后，有没有拿着这个材料去车管所办解押呀。
-【用户】：呃，因为我不是他本人是这样的，就是他现在他这辆车就是我们是咱这个就是河南省新郑，新郑市这个人民法院的。
-【坐席】：啊啊。嗯。嗯。嗯。啊啊，您好，嗯。
-【用户】：就是他现在这个车，因为涉及的诉讼，我们就是核实一下，他这个车之前的这个抵押就是结清了没有，因为。嗯嗯嗯。嗯。嗯嗯。嗯，明白。他现在没有没有办理这个解压的手续。哦，明白，那已经结清了，他在21年12月5号的时候就已经结清了，然后然后那个材料，呃，我看是在当时12月10号的时候给他邮寄的。但是他具体是几号是收到的，我这边就看不到了，因为他那个时间太长，在顺丰的那个官网上就看不了这个这个日期。那嗯，那我问一下啊。嗯，我只能看到邮寄的时间，嗯。行，那我麻烦问一下啊，就是呃，咱这个结清的那个证明，我们就是还能给，就是能给法院再邮寄一份吗？或者是咱们有没有这个法务法务部。嗯。嗯。我们给咱这个法务部可以直接联系，然后咱公司这边需要什么材料，我可以就是我们法院可以给咱们先寄回去。嗯。然后到时候能把这个结清，结清证明再给我们寄过来一份就行。嗯，那这个得车主来电我们才能反馈。不是就是咱有没有咱这个公司就是法务部啊这种。啊。呃，有，但是他受理不了这个情况，但是就是他那个邮寄材料是这样的，呃，是车主无法无法来电是吗。啊，没事。对，这这个没事，就是说，嗯，不是说让咱重新寄一份，就是说。嗯。嗯。嗯，咱们要是有法务部的话，你看能不能给我提供一个法务的电话。然后我们这边直接跟咱这个法务部对接。呃。这。这个号码我们没有，因为我们反馈问题是以工单的形式去反馈的。嗯，但是他这个结清的这个，因为正常在那个异星公众号或者我们这个端口，呃，能查询到的，它确实是有已经结清了，他正常是按月还的那种，就是正彻款去结清这个钱的。确实还了。哦哦。嗯，这边我能看到。主要是法院。嗯。嗯，这个我们相信这个情况，但是法院他主要。哦哦哦哦，但是得要材料是吗？哦，明白。对，咱要纸质的，他得附到里头。
-【坐席】：呃，但是但是先生他正常，当时他办完结清以后，我们有给他邮寄那个资料，是那个资料，他这边现在客户是没有了是吗。因为当时都有有过。
-【用户】：对。因为他也没有提交。然后再加上他在前一段时间。哦。嗯。嗯，就是他突然，因为可能是我具体什么什么疾病啊啥，我我肯定也不是很清楚。嗯，不太清楚啊，嗯，明白，嗯嗯嗯。哦哦。突然因为某些事就是不在了。嗯嗯嗯。然后这个车现在被被我们法院等于说扣下来了，现在等于说这个正等待这个拍卖。嗯。哦。嗯，但是拍卖我们一查这个车上有一个抵押的这个情况。嗯。嗯嗯。明白。因为你你有抵押的话，咱肯定咱得保，咱也得保障咱这个抵押权人的利益。嗯。嗯。嗯，明白。就是说咱再确认一下，他这个抵押到底还了没，如果没还完，到时候这个车比如说拍卖，拍卖了之后卖的钱肯定还得给咱们。
-【坐席】：我理解。嗯。嗯。嗯嗯。嗯嗯嗯。明白，呃，那或者这样，先生，呃，您那个情况我可以去帮您反馈这个问题，呃，然后呃，您这样，您刚才能说一下您那个就是呃是哪个地方，就是详细的那个法院的名字，然后还有这个，呃，您的信息我记录，然后我们反馈上去，这个问题您看行吗？让相关工作人员处理这个行吗？
-【用户】：嗯。也行，这个就是咱这边是没有这个法务这块的电话，就是办公电话就行。
-【坐席】：呃。嗯，他是这样的，就是因为我们这个部门吧，他联系这个不是通过打电话的方式，是提交工单的形式，对所以说我这边人员电话这边看不到我，因为我们都是提交工单嘛，不是说我们打电话沟通这种的，对所以我这边没有对所以说您的情况我可以给您反馈上去，就比方说您提供一个就是法院的那种，呃，是您的手机号啊或者是什么的，我把您的那个法院电话也写上，呃，一起去反馈这个情况，这样可以吗？
-【用户】：哦哦。是。哦哦。对对。对。嗯，那他到时候是不是会给我打过来吗。
-【坐席】：嗯，就是我们反馈上去，如果是您这边就是要核实这个情况，需要人员给您回电沟通的话，那我就把电话记上，然后后面您等一下这个电话，看一下这个情况可以吗。
-【用户】：就是。哦哦行，因为我们是想着就是你这种事肯定毕竟是公对公的，嗯，因为我们现在也不知道咱公司就是。嗯嗯。嗯嗯嗯，是我。嗯，一个是这个内部架构是怎么样的，再一个是我们也没有这个咱们具体的那个办公电话。嗯。嗯嗯。嗯嗯，明白，嗯嗯。然后等于说不知道跟谁联系。
-【坐席】：行可以，那您这样，您告诉我您那边的信息，我给您记录上，或者是您需要联系回电的那个电话，我这边都写上可以吧。
-【用户】：嗯。咱能看见我的手机号吗？
-【坐席】：呃，您来电这个电话能看到就178的，这个是回的话就回这个吗？就行吗。
-【用户】：啊对，就回到这个号上就行。
-【坐席】：行，然后您看您那个法院是具体详细的一下全名，您告诉我一下啊。
-【用户】：就是呃，河南省河，河南省新郑市人民法院。嗯嗯嗯。新政，呃，新旧的新，那个政治的政是吧，新政人民。郑是郑是这个郑州的郑。啊。哦哦，新郑哦哦好抱歉，呃，新郑人民法院。可以。对新郑市人民法院。可以。对，我们就是说想沟通一下，如果需要咱法院正式的发手续的话，我们可以给咱公司这个法务部，就是给咱邮寄这个正规的手续。
-【坐席】：嗯。嗯。嗯。嗯。嗯，可以，那我就是现在先，呃帮您去反馈这个情况，呃，然后就是等待一下这个相关的这个信息可以吧。
-【用户】：行。嗯嗯嗯。可以，他到时候会直接跟我就是联系是吧，就是肯定会有人跟我联系。呃。呃，对，就是相关我反馈上去得工作人员他得去核实这个情况，对应去沟通。嗯。嗯，他他核是核实什么情况。呃，就是因为我们反馈上去的话，就是工作人员得按照这个信息去，呃查询，就是因为它处理是对应解决这件事情的人的部门。呃，我。
-【坐席】：就比方说他这个，呃，对，就他这个，比方说他是像刚才您提到的，如果是转到那个法务部，那边的法务部的工作人员和您去沟通对接这种事情都是这个情况，呃，他就得看他那个处理是哪个部门的人，得是这种的。
-【用户】：哦哦。哦。哦哦哦，要到时候就是确定了人了，等于说这个人会和我联系是吧。嗯。嗯嗯。嗯，对对对，得反馈上去，这个人处理情况，他他是有权限的，我们没有，嗯。哦。行。行，咱这个咱这个国庆这个假期是放假吗？还是。嗯。嗯。呃，休息。嗯。就是也是等到这个七号上班是吧。对对，一样的。行行，呃，另外我想问一下，就是如果就是我们需要这个纸质材料，就是比如说我需要去调取这个纸质材料。嗯。嗯。嗯。嗯嗯。嗯嗯嗯。嗯，我我现在应该是去哪调呀。嗯，他这个材料，他这个材料是这样的，当时他那个出的话是我们宜兴总部出的那个相关结清的那些资料。就是咱们这个公司现在。嗯。
-【坐席】：嗯，然后呃，如果是您提到的那个情况，呃，就是现在的话，就是相关要结清的那种信息是吧，就是核对的话，就是核您核对。
-【用户】：嗯。对对对，就是就是需要比如说咱们公司。结清，嗯。出出一个这个之前不是也出过这种结清证明，就证明他这个抵押的钱。啊。嗯嗯，就再要一份，就相当于嗯，明白。对，就已经还完了，然后盖上一个咱们公司的章。嗯嗯嗯。嗯嗯嗯。就是我我想的是因为我我现在不太清楚咱们这个总部在哪具体位置。嗯。嗯，他。就是如果咱们能够和咱这个法务部，或者是咱具体负责的人员联系上，就是说咱可以通过邮寄的方式。嗯。嗯。嗯。嗯嗯。就是咱公司需要法院提交什么材料，我们给咱邮寄过去，然后咱们把我们需要的东西给我们邮寄过来，就是这样，肯定是。嗯嗯。嗯嗯。嗯嗯嗯。嗯嗯。就是最省事的，但是如果是需要，呃，就是去一趟的话，就是看看咱们公司是位置是在哪，就是也可以。嗯，明。嗯嗯。那实在不行的话，那就再跑一趟。
-【坐席】：嗯嗯，明白，呃，那您就这样，我先按照您的这个情况去，呃，备注上就是这样写，就是相当于呃，您那边后续要拍卖这个车辆，呃法院这边要拍卖这个车辆，然后但是这边没客户没解押，呃需要法务和您对接相关，就是结清那个材料可以吧。
-【用户】：对对，就是看他到底结清了没有。嗯，行。行行行。嗯嗯，可以，那我就按照这个情况先反。它它不影响就是它不影响咱们就是不是和不是咱们公司的问题，就是咱们公司没有问题。嗯嗯。哦，明白。嗯嗯嗯嗯。咱们公司只是作为抵押权人，咱有咱们的权利，我们就核实一下，如果确实没有结清。嗯嗯嗯。那那个拍卖款肯定得优先还给咱们公司。
-【坐席】：嗯嗯。嗯嗯嗯嗯，明白，嗯，那我就先帮按照这个刚才我提到的这个，呃，去反馈一下这个情况，那您就后面等待一下电话，我也写您现在来电这个好吧。
-【用户】：啊。行。行。好的好的，呃，他如果这个就是给我打电话，他会用什么样的电话呀，因为我怕有时候。
-【坐席】：嗯嗯嗯。呃，是这样的，呃，工作人员跟您沟通，有可能是我们就是呃宜兴的那个座机号码。嗯，有对，然后正常情况下，如果是他座机给您打没打通，正常他会有的，会用私人的手机号码接打，因为有嗯，就看情况，如果那个号码能接通，就用用那个电话号，不然就是手机号两个都可能。
-【用户】：座机号。哦。行，咱这个座机号的话是从，嗯，就是咱是。呃，020开头的。020开头。对。行。嗯，但是具体后面的号段，因为它那个不是像我们400是一个统一的，它因为它那个是往外呼的那种嘛，呃，它是随机生成的那个号码，是这样的一个情况。零二。嗯。嗯，但是是是是这种上面有那种归属地什么的，这个都有，嗯。行行，你跟我说吧。行，那我明白，嗯，他这个大概会多长时间会有结果呀。
-【坐席】：嗯嗯嗯。嗯，我这边给您备注上那个着急的情况可以吗。
-【用户】：哦，行行行行。嗯嗯嗯，好的，嗯嗯嗯，客气了。
-【坐席】：行，那麻烦咱啊，那另外我想问一下就是您您您说就是咱们这个是当时等于说假设咱们总部给他做的这个抵押。
-【用户】：啊。嗯。嗯。嗯嗯嗯。那等于说是不是他这个材料都是在咱们这个一心总部，就是都可以调取。
-【坐席】：嗯，您您看是对应什么情况，正常它那个材料如果是重出，应该也是我们这边对应去出具，如果您像像您说的那个结清的那个。那就是我们对应去提供，嗯，因为他那个车车，他那个当时办理就是我们一心的。
-【用户】：哦。哦哦，那咱们这个公司地址大概在哪啊。嗯嗯。嗯，上海总部在上海，每个地方有分公司。嗯，那郑州郑州或者是河南这边就是有有打。呃，有分公司，有分公司，但是分公司的话，它这个正常就是相关，比方说办新业务，那边会有相关的工作人员，呃，分公司有一些权限，应该没有总部那么大，有些业务他办不了。嗯。就这个意思，得看分业务情况，嗯。那你比如说就。那你比如说就像这个，我想查询一下，就是他这个抵押是否结清。嗯。嗯。呃，如果如果结清了，就是他能不能比如说。嗯。要材料这种，嗯。就是出一个一个结清的证明，就是这种咱这分公司。
-【坐席】：嗯，那那这个分公司处理，那就是得找我们总部这边，我们帮您反馈上去，让人员处理。
-【用户】：哦，分公司等于说他可以查，但是他没办法出这个东西。嗯嗯，对得看，因为他正常它那个材料正常不是盖公司公章吗。他那个分公司，他没有总总就是总公司的章，嗯。对对对。就这个意思。哦，这个东西就实际上是盖应该盖的是总公司的章，他没办法盖章，是这个意思吗。嗯。对，他他他那个总的章不在分公司，他们分公司只有他们分公司的章，嗯，不一样。哦。哦哦，行，那咱那麻烦咱给我说一下咱这个公司在哪呢吧。嗯。嗯。呃，上海总部在上海。嗯，上海就大概位置就。
-【坐席】：呃，大致的位置是吧，嗯，稍稍等一下，我把那个详细位置找一下，稍微稍微等一下先生我查一下。
-【用户】：好的好的。
-【坐席】：嗯，先生是这样的，呃，感谢耐心等待，是这个上海市长宁区临虹路。365号。
-【用户】：上海市长宁区林红林是树林的林吗？嗯。嗯。就是欢迎对欢，呃，不是欢迎光临的临。降临的临啊啊红是一个虫字加一个工的那个。
-【坐席】：哦，林。您。哦，林虹路。
-【用户】：嗯。嗯，365号。365。没了。365号。对。呃，主要是呃，创新中心。是这个位置。就这个这这个号就是个楼就是。啊，行。哦，行行，那咱咱河南这边是只有郑州有分公司吗？还是说。嗯。嗯。嗯，别的地方也有，但是正常的话就是看地区跟那个有关系。哦，那咱郑，呃，郑州这边这个公司是是不是在那个郑汴路上那个。嗯。就是有一个我看好像叫什么易鑫金融外贸。嗯，那这个位置我们。嗯，不是，嗯，正常这个详细的位置我们这边看不到，我们这边只有备注了总部的对应的，对，就具体分公司的很多详细的地址不知道，嗯。啊，好。行行行行。行行那那那行，那麻烦就是把这个情况就是给咱给这个反映一下。嗯嗯。行。嗯。嗯，可以，嗯。然后到时候让他们就是能尽快给我们就给我回个电话，到时候我看看啊，就是具体我们怎么怎么办。
-【坐席】：可以。可以。嗯，好的，那我稍后挂断之后帮您去反馈这个情况，嗯，还有别的吗先生。
-【用户】：啊。好的。嗯，别的没有了，别的没有了。</t>
-  </si>
-  <si>
-    <t>用户咨询车辆是否解除抵押，经查询车主于2019年结清抵押，公司已寄出结清材料但无法确认车主是否收到。客户要求公司重新寄送结清证明或直接联系法务部取得材料。同时询问公司总部地址和分公司地址。通过电话沟通及时响应了客户的需求，记录了客户联系方式和咨询内容。</t>
   </si>
   <si>
     <t xml:space="preserve">客户来电咨询解押问题，查询还未结清，已告知相关流程，客户知悉。申请编号：8099959897
@@ -7405,10 +7338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D242"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -9294,295 +9227,298 @@
         <v>422</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="84">
+    <row r="135" spans="1:4" ht="42">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="B135" t="s">
         <v>423</v>
       </c>
+      <c r="C135" t="s">
+        <v>424</v>
+      </c>
       <c r="D135" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="42">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="56">
       <c r="A136" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B136" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C136" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="56">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="70">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>318</v>
       </c>
       <c r="B137" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C137" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="70">
       <c r="A138" t="s">
-        <v>318</v>
+        <v>38</v>
       </c>
       <c r="B138" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C138" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="70">
       <c r="A139" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="70">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="56">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="56">
       <c r="A141" t="s">
-        <v>145</v>
+        <v>441</v>
       </c>
       <c r="B141" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C141" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="56">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="70">
       <c r="A142" t="s">
-        <v>443</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C142" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="70">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="56">
       <c r="A143" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B143" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C143" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="56">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="70">
       <c r="A144" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C144" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="70">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="84">
       <c r="A145" t="s">
+        <v>32</v>
+      </c>
+      <c r="B145" t="s">
+        <v>454</v>
+      </c>
+      <c r="C145" t="s">
+        <v>455</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="56">
+      <c r="A146" t="s">
         <v>214</v>
       </c>
-      <c r="B145" t="s">
-        <v>453</v>
-      </c>
-      <c r="C145" t="s">
-        <v>454</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="84">
-      <c r="A146" t="s">
-        <v>32</v>
-      </c>
       <c r="B146" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C146" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="56">
       <c r="A147" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C147" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="56">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B148" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C148" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="56">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="70">
       <c r="A149" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C149" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="70">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B150" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C150" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="70">
       <c r="A151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B151" t="s">
+        <v>472</v>
+      </c>
+      <c r="C151" t="s">
+        <v>473</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="42">
+      <c r="A152" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" t="s">
+        <v>475</v>
+      </c>
+      <c r="C152" t="s">
+        <v>476</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="98">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>478</v>
+      </c>
+      <c r="C153" t="s">
+        <v>479</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="70">
+      <c r="A154" t="s">
         <v>38</v>
       </c>
-      <c r="B151" t="s">
-        <v>471</v>
-      </c>
-      <c r="C151" t="s">
-        <v>472</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="70">
-      <c r="A152" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" t="s">
-        <v>474</v>
-      </c>
-      <c r="C152" t="s">
-        <v>475</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="42">
-      <c r="A153" t="s">
-        <v>172</v>
-      </c>
-      <c r="B153" t="s">
-        <v>477</v>
-      </c>
-      <c r="C153" t="s">
-        <v>478</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="98">
-      <c r="A154" t="s">
-        <v>12</v>
-      </c>
       <c r="B154" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C154" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="70">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C155" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="70">
@@ -9590,475 +9526,475 @@
         <v>4</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C156" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="70">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="84">
       <c r="A157" t="s">
         <v>4</v>
       </c>
       <c r="B157" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C157" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="84">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="56">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B158" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C158" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="56">
       <c r="A159" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C159" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="56">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="70">
       <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>499</v>
+      </c>
+      <c r="C160" t="s">
+        <v>500</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="56">
+      <c r="A161" t="s">
         <v>4</v>
       </c>
-      <c r="B160" t="s">
-        <v>498</v>
-      </c>
-      <c r="C160" t="s">
-        <v>499</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="70">
-      <c r="A161" t="s">
-        <v>12</v>
-      </c>
       <c r="B161" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="56">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="B162" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="56">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C163" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="56">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="28">
       <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>511</v>
+      </c>
+      <c r="C164" t="s">
+        <v>512</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="84">
+      <c r="A165" t="s">
+        <v>38</v>
+      </c>
+      <c r="B165" t="s">
+        <v>514</v>
+      </c>
+      <c r="C165" t="s">
+        <v>515</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="98">
+      <c r="A166" t="s">
+        <v>22</v>
+      </c>
+      <c r="B166" t="s">
+        <v>517</v>
+      </c>
+      <c r="C166" t="s">
+        <v>518</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="42">
+      <c r="A167" t="s">
+        <v>38</v>
+      </c>
+      <c r="B167" t="s">
+        <v>520</v>
+      </c>
+      <c r="C167" t="s">
+        <v>521</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="70">
+      <c r="A168" t="s">
         <v>4</v>
       </c>
-      <c r="B164" t="s">
-        <v>510</v>
-      </c>
-      <c r="C164" t="s">
-        <v>511</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="28">
-      <c r="A165" t="s">
+      <c r="B168" t="s">
+        <v>523</v>
+      </c>
+      <c r="C168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="84">
+      <c r="A169" t="s">
+        <v>18</v>
+      </c>
+      <c r="B169" t="s">
+        <v>526</v>
+      </c>
+      <c r="C169" t="s">
+        <v>527</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="56">
+      <c r="A170" t="s">
+        <v>54</v>
+      </c>
+      <c r="B170" t="s">
+        <v>529</v>
+      </c>
+      <c r="C170" t="s">
+        <v>530</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="84">
+      <c r="A171" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" t="s">
+        <v>532</v>
+      </c>
+      <c r="C171" t="s">
+        <v>533</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="70">
+      <c r="A172" t="s">
         <v>12</v>
       </c>
-      <c r="B165" t="s">
-        <v>513</v>
-      </c>
-      <c r="C165" t="s">
-        <v>514</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="84">
-      <c r="A166" t="s">
+      <c r="B172" t="s">
+        <v>535</v>
+      </c>
+      <c r="C172" t="s">
+        <v>536</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="56">
+      <c r="A173" t="s">
         <v>38</v>
       </c>
-      <c r="B166" t="s">
-        <v>516</v>
-      </c>
-      <c r="C166" t="s">
-        <v>517</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="98">
-      <c r="A167" t="s">
-        <v>22</v>
-      </c>
-      <c r="B167" t="s">
-        <v>519</v>
-      </c>
-      <c r="C167" t="s">
-        <v>520</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="42">
-      <c r="A168" t="s">
-        <v>38</v>
-      </c>
-      <c r="B168" t="s">
-        <v>522</v>
-      </c>
-      <c r="C168" t="s">
-        <v>523</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="70">
-      <c r="A169" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" t="s">
-        <v>525</v>
-      </c>
-      <c r="C169" t="s">
-        <v>526</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="84">
-      <c r="A170" t="s">
-        <v>18</v>
-      </c>
-      <c r="B170" t="s">
-        <v>528</v>
-      </c>
-      <c r="C170" t="s">
-        <v>529</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="56">
-      <c r="A171" t="s">
-        <v>54</v>
-      </c>
-      <c r="B171" t="s">
-        <v>531</v>
-      </c>
-      <c r="C171" t="s">
-        <v>532</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="84">
-      <c r="A172" t="s">
-        <v>22</v>
-      </c>
-      <c r="B172" t="s">
-        <v>534</v>
-      </c>
-      <c r="C172" t="s">
-        <v>535</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="70">
-      <c r="A173" t="s">
-        <v>12</v>
-      </c>
       <c r="B173" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C173" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="56">
       <c r="A174" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B174" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C174" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="56">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="70">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>318</v>
       </c>
       <c r="B175" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C175" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="70">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="98">
       <c r="A176" t="s">
-        <v>318</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C176" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="98">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="56">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B177" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C177" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="56">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B178" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C178" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="56">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="42">
       <c r="A179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B179" t="s">
+        <v>556</v>
+      </c>
+      <c r="C179" t="s">
+        <v>557</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="70">
+      <c r="A180" t="s">
+        <v>145</v>
+      </c>
+      <c r="B180" t="s">
+        <v>559</v>
+      </c>
+      <c r="C180" t="s">
+        <v>560</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="42">
+      <c r="A181" t="s">
         <v>22</v>
       </c>
-      <c r="B179" t="s">
-        <v>555</v>
-      </c>
-      <c r="C179" t="s">
-        <v>556</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="42">
-      <c r="A180" t="s">
+      <c r="B181" t="s">
+        <v>562</v>
+      </c>
+      <c r="C181" t="s">
+        <v>563</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="70">
+      <c r="A182" t="s">
+        <v>565</v>
+      </c>
+      <c r="B182" t="s">
+        <v>566</v>
+      </c>
+      <c r="C182" t="s">
+        <v>567</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="56">
+      <c r="A183" t="s">
         <v>4</v>
       </c>
-      <c r="B180" t="s">
-        <v>558</v>
-      </c>
-      <c r="C180" t="s">
-        <v>559</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="70">
-      <c r="A181" t="s">
-        <v>145</v>
-      </c>
-      <c r="B181" t="s">
-        <v>561</v>
-      </c>
-      <c r="C181" t="s">
-        <v>562</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="42">
-      <c r="A182" t="s">
-        <v>22</v>
-      </c>
-      <c r="B182" t="s">
-        <v>564</v>
-      </c>
-      <c r="C182" t="s">
-        <v>565</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="70">
-      <c r="A183" t="s">
-        <v>567</v>
-      </c>
       <c r="B183" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C183" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="56">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="70">
       <c r="A184" t="s">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="B184" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C184" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="70">
       <c r="A185" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C185" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="70">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="42">
       <c r="A186" t="s">
         <v>12</v>
       </c>
       <c r="B186" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C186" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="42">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="70">
       <c r="A187" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B187" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C187" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="70">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="42">
       <c r="A188" t="s">
-        <v>22</v>
+        <v>584</v>
       </c>
       <c r="B188" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C188" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="42">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="56">
       <c r="A189" t="s">
-        <v>586</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C189" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="56">
@@ -10066,27 +10002,27 @@
         <v>38</v>
       </c>
       <c r="B190" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C190" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="56">
       <c r="A191" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C191" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="56">
@@ -10094,556 +10030,556 @@
         <v>4</v>
       </c>
       <c r="B192" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C192" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="56">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="42">
       <c r="A193" t="s">
+        <v>83</v>
+      </c>
+      <c r="B193" t="s">
+        <v>600</v>
+      </c>
+      <c r="C193" t="s">
+        <v>601</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="84">
+      <c r="A194" t="s">
+        <v>22</v>
+      </c>
+      <c r="B194" t="s">
+        <v>603</v>
+      </c>
+      <c r="C194" t="s">
+        <v>604</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="56">
+      <c r="A195" t="s">
+        <v>70</v>
+      </c>
+      <c r="B195" t="s">
+        <v>606</v>
+      </c>
+      <c r="C195" t="s">
+        <v>607</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="42">
+      <c r="A196" t="s">
         <v>4</v>
       </c>
-      <c r="B193" t="s">
-        <v>599</v>
-      </c>
-      <c r="C193" t="s">
-        <v>600</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="42">
-      <c r="A194" t="s">
+      <c r="B196" t="s">
+        <v>609</v>
+      </c>
+      <c r="C196" t="s">
+        <v>610</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="84">
+      <c r="A197" t="s">
         <v>83</v>
       </c>
-      <c r="B194" t="s">
-        <v>602</v>
-      </c>
-      <c r="C194" t="s">
-        <v>603</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="84">
-      <c r="A195" t="s">
+      <c r="B197" t="s">
+        <v>612</v>
+      </c>
+      <c r="C197" t="s">
+        <v>613</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="42">
+      <c r="A198" t="s">
         <v>22</v>
       </c>
-      <c r="B195" t="s">
-        <v>605</v>
-      </c>
-      <c r="C195" t="s">
-        <v>606</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="56">
-      <c r="A196" t="s">
-        <v>70</v>
-      </c>
-      <c r="B196" t="s">
-        <v>608</v>
-      </c>
-      <c r="C196" t="s">
-        <v>609</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="42">
-      <c r="A197" t="s">
-        <v>4</v>
-      </c>
-      <c r="B197" t="s">
-        <v>611</v>
-      </c>
-      <c r="C197" t="s">
-        <v>612</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="84">
-      <c r="A198" t="s">
+      <c r="B198" t="s">
+        <v>615</v>
+      </c>
+      <c r="C198" t="s">
+        <v>616</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="70">
+      <c r="A199" t="s">
         <v>83</v>
       </c>
-      <c r="B198" t="s">
-        <v>614</v>
-      </c>
-      <c r="C198" t="s">
-        <v>615</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="42">
-      <c r="A199" t="s">
-        <v>22</v>
-      </c>
       <c r="B199" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C199" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="70">
       <c r="A200" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="B200" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C200" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="70">
       <c r="A201" t="s">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="B201" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C201" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="70">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="56">
       <c r="A202" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C202" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="56">
       <c r="A203" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C203" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="56">
       <c r="A204" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B204" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C204" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="56">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="70">
       <c r="A205" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="B205" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C205" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="70">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="84">
       <c r="A206" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="B206" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C206" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="84">
       <c r="A207" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="B207" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C207" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="84">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="42">
       <c r="A208" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C208" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="42">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="56">
       <c r="A209" t="s">
+        <v>38</v>
+      </c>
+      <c r="B209" t="s">
+        <v>648</v>
+      </c>
+      <c r="C209" t="s">
+        <v>649</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="84">
+      <c r="A210" t="s">
         <v>4</v>
       </c>
-      <c r="B209" t="s">
-        <v>647</v>
-      </c>
-      <c r="C209" t="s">
-        <v>648</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="56">
-      <c r="A210" t="s">
-        <v>38</v>
-      </c>
       <c r="B210" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C210" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="84">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="42">
       <c r="A211" t="s">
         <v>4</v>
       </c>
       <c r="B211" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C211" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="42">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="70">
       <c r="A212" t="s">
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C212" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="70">
       <c r="A213" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C213" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="70">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="56">
       <c r="A214" t="s">
         <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C214" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="56">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="70">
       <c r="A215" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="B215" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C215" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="70">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="84">
       <c r="A216" t="s">
         <v>83</v>
       </c>
       <c r="B216" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C216" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="70">
       <c r="A217" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="B217" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C217" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="84">
       <c r="A218" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C218" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="70">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="56">
       <c r="A219" t="s">
-        <v>172</v>
+        <v>391</v>
       </c>
       <c r="B219" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C219" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="84">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="70">
       <c r="A220" t="s">
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C220" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="56">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="70">
       <c r="A221" t="s">
-        <v>391</v>
+        <v>12</v>
       </c>
       <c r="B221" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C221" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="70">
       <c r="A222" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C222" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="70">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="84">
       <c r="A223" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C223" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="70">
       <c r="A224" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="B224" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C224" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="84">
       <c r="A225" t="s">
+        <v>22</v>
+      </c>
+      <c r="B225" t="s">
+        <v>696</v>
+      </c>
+      <c r="C225" t="s">
+        <v>697</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="84">
+      <c r="A226" t="s">
+        <v>32</v>
+      </c>
+      <c r="B226" t="s">
+        <v>699</v>
+      </c>
+      <c r="C226" t="s">
+        <v>700</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="56">
+      <c r="A227" t="s">
         <v>4</v>
       </c>
-      <c r="B225" t="s">
-        <v>695</v>
-      </c>
-      <c r="C225" t="s">
-        <v>696</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="70">
-      <c r="A226" t="s">
-        <v>83</v>
-      </c>
-      <c r="B226" t="s">
-        <v>698</v>
-      </c>
-      <c r="C226" t="s">
-        <v>699</v>
-      </c>
-      <c r="D226" s="3" t="s">
+      <c r="B227" t="s">
+        <v>702</v>
+      </c>
+      <c r="C227" t="s">
+        <v>703</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="70">
+      <c r="A228" t="s">
+        <v>12</v>
+      </c>
+      <c r="B228" t="s">
+        <v>705</v>
+      </c>
+      <c r="C228" t="s">
+        <v>706</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="70">
+      <c r="A229" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>708</v>
+      </c>
+      <c r="C229" t="s">
+        <v>709</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="56">
+      <c r="A230" t="s">
+        <v>38</v>
+      </c>
+      <c r="B230" t="s">
+        <v>711</v>
+      </c>
+      <c r="C230" t="s">
+        <v>712</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="84">
+      <c r="A231" t="s">
+        <v>22</v>
+      </c>
+      <c r="B231" t="s">
+        <v>714</v>
+      </c>
+      <c r="C231" t="s">
         <v>700</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="84">
-      <c r="A227" t="s">
-        <v>22</v>
-      </c>
-      <c r="B227" t="s">
-        <v>701</v>
-      </c>
-      <c r="C227" t="s">
-        <v>702</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="84">
-      <c r="A228" t="s">
-        <v>32</v>
-      </c>
-      <c r="B228" t="s">
-        <v>704</v>
-      </c>
-      <c r="C228" t="s">
-        <v>705</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="56">
-      <c r="A229" t="s">
-        <v>4</v>
-      </c>
-      <c r="B229" t="s">
-        <v>707</v>
-      </c>
-      <c r="C229" t="s">
-        <v>708</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="70">
-      <c r="A230" t="s">
-        <v>12</v>
-      </c>
-      <c r="B230" t="s">
-        <v>710</v>
-      </c>
-      <c r="C230" t="s">
-        <v>711</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="70">
-      <c r="A231" t="s">
-        <v>18</v>
-      </c>
-      <c r="B231" t="s">
-        <v>713</v>
-      </c>
-      <c r="C231" t="s">
-        <v>714</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>715</v>
@@ -10651,7 +10587,7 @@
     </row>
     <row r="232" spans="1:4" ht="56">
       <c r="A232" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B232" t="s">
         <v>716</v>
@@ -10663,144 +10599,116 @@
         <v>718</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="84">
+    <row r="233" spans="1:4" ht="70">
       <c r="A233" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B233" t="s">
         <v>719</v>
       </c>
       <c r="C233" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="56">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="42">
       <c r="A234" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="B234" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C234" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="70">
       <c r="A235" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="B235" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C235" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="42">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="84">
       <c r="A236" t="s">
-        <v>145</v>
+        <v>381</v>
       </c>
       <c r="B236" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C236" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="70">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="42">
       <c r="A237" t="s">
-        <v>145</v>
+        <v>214</v>
       </c>
       <c r="B237" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C237" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="84">
       <c r="A238" t="s">
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="B238" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C238" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="42">
       <c r="A239" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C239" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="84">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="56">
       <c r="A240" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B240" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C240" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="42">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
         <v>742</v>
-      </c>
-      <c r="C241" t="s">
-        <v>743</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="56">
-      <c r="A242" t="s">
-        <v>32</v>
-      </c>
-      <c r="B242" t="s">
-        <v>745</v>
-      </c>
-      <c r="C242" t="s">
-        <v>746</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>747</v>
       </c>
     </row>
   </sheetData>
